--- a/ContentTypes.xlsx
+++ b/ContentTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Jakar.Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6AF9B7-B62B-4D7F-8852-7B5B6C43E5DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D83257-0BC1-4B61-857B-EE52D6DFDC91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C7F77812-4573-408B-9D73-51539D1F48FA}"/>
   </bookViews>
@@ -8165,8 +8165,8 @@
   <dimension ref="A1:E693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -8252,7 +8252,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>173</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>296</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>300</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>304</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>308</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
         <v>312</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
         <v>2417</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="42.45">
+    <row r="15" spans="1:5" ht="28.3">
       <c r="A15" s="6" t="s">
         <v>427</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42.45">
+    <row r="16" spans="1:5" ht="28.3">
       <c r="A16" s="3" t="s">
         <v>427</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>934</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.3">
+    <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
         <v>1186</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>1166</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>1189</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>1192</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
         <v>1820</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
         <v>1827</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>1827</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.3">
+    <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
         <v>1839</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.3">
+    <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
         <v>938</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.3">
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>948</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="42.45">
+    <row r="81" spans="1:4" ht="28.3">
       <c r="A81" s="6" t="s">
         <v>2068</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="42.45">
+    <row r="82" spans="1:4" ht="28.3">
       <c r="A82" s="3" t="s">
         <v>2072</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.3">
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>2044</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28.3">
+    <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
         <v>2048</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="28.3">
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>2228</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.3">
+    <row r="90" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>2161</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.3">
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>2165</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="28.3">
+    <row r="92" spans="1:4">
       <c r="A92" s="6" t="s">
         <v>2041</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.3">
+    <row r="97" spans="1:4">
       <c r="A97" s="6" t="s">
         <v>24</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.3">
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>28</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.3">
+    <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>31</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="42.45">
+    <row r="100" spans="1:4" ht="28.3">
       <c r="A100" s="3" t="s">
         <v>34</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="28.3">
+    <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>49</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="28.3">
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>131</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="28.3">
+    <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>142</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="28.3">
+    <row r="128" spans="1:4">
       <c r="A128" s="6" t="s">
         <v>1019</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="28.3">
+    <row r="129" spans="1:4">
       <c r="A129" s="6" t="s">
         <v>922</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="28.3">
+    <row r="133" spans="1:4">
       <c r="A133" s="3" t="s">
         <v>316</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.3">
+    <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
         <v>368</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.3">
+    <row r="142" spans="1:4">
       <c r="A142" s="6" t="s">
         <v>377</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="28.3">
+    <row r="143" spans="1:4">
       <c r="A143" s="3" t="s">
         <v>380</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="28.3">
+    <row r="145" spans="1:4">
       <c r="A145" s="6" t="s">
         <v>89</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="28.3">
+    <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
         <v>604</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.3">
+    <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
         <v>473</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="28.3">
+    <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>669</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="28.3">
+    <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>755</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="28.3">
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>784</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="28.3">
+    <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
         <v>790</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="28.3">
+    <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
         <v>2561</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="28.3">
+    <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>827</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="28.3">
+    <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
         <v>831</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="28.3">
+    <row r="216" spans="1:4">
       <c r="A216" s="6" t="s">
         <v>871</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="28.3">
+    <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>955</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="28.3">
+    <row r="228" spans="1:4">
       <c r="A228" s="6" t="s">
         <v>959</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="28.3">
+    <row r="232" spans="1:4">
       <c r="A232" s="6" t="s">
         <v>1465</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="28.3">
+    <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
         <v>1039</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="28.3">
+    <row r="268" spans="1:4">
       <c r="A268" s="3" t="s">
         <v>1496</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="28.3">
+    <row r="269" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>1481</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="28.3">
+    <row r="270" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>1477</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28.3">
+    <row r="271" spans="1:4">
       <c r="A271" s="6" t="s">
         <v>1487</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="28.3">
+    <row r="272" spans="1:4">
       <c r="A272" s="3" t="s">
         <v>1490</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="28.3">
+    <row r="274" spans="1:4">
       <c r="A274" s="6" t="s">
         <v>1493</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="28.3">
+    <row r="290" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>1324</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="28.3">
+    <row r="291" spans="1:4">
       <c r="A291" s="6" t="s">
         <v>1377</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="28.3">
+    <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>1373</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="42.45">
+    <row r="295" spans="1:4" ht="28.3">
       <c r="A295" s="6" t="s">
         <v>1349</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="42.45">
+    <row r="297" spans="1:4" ht="28.3">
       <c r="A297" s="3" t="s">
         <v>1352</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="42.45">
+    <row r="298" spans="1:4" ht="28.3">
       <c r="A298" s="6" t="s">
         <v>1355</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="42.45">
+    <row r="305" spans="1:4" ht="28.3">
       <c r="A305" s="6" t="s">
         <v>1545</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="28.3">
+    <row r="312" spans="1:4">
       <c r="A312" s="6" t="s">
         <v>1561</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="28.3">
+    <row r="318" spans="1:4">
       <c r="A318" s="6" t="s">
         <v>1671</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="28.3">
+    <row r="325" spans="1:4">
       <c r="A325" s="3" t="s">
         <v>1699</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="28.3">
+    <row r="331" spans="1:4">
       <c r="A331" s="3" t="s">
         <v>1723</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="28.3">
+    <row r="337" spans="1:4">
       <c r="A337" s="6" t="s">
         <v>1656</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="42.45">
+    <row r="338" spans="1:4" ht="28.3">
       <c r="A338" s="6" t="s">
         <v>1290</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="42.45">
+    <row r="340" spans="1:4" ht="28.3">
       <c r="A340" s="6" t="s">
         <v>1297</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="42.45">
+    <row r="341" spans="1:4" ht="28.3">
       <c r="A341" s="3" t="s">
         <v>1300</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="42.45">
+    <row r="343" spans="1:4" ht="28.3">
       <c r="A343" s="3" t="s">
         <v>1308</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="42.45">
+    <row r="345" spans="1:4" ht="29.15">
       <c r="A345" s="3" t="s">
         <v>1316</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="28.3">
+    <row r="346" spans="1:4">
       <c r="A346" s="6" t="s">
         <v>1130</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="28.3">
+    <row r="363" spans="1:4">
       <c r="A363" s="6" t="s">
         <v>1984</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="28.3">
+    <row r="373" spans="1:4">
       <c r="A373" s="3" t="s">
         <v>2093</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="28.3">
+    <row r="375" spans="1:4">
       <c r="A375" s="3" t="s">
         <v>2093</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="28.3">
+    <row r="376" spans="1:4">
       <c r="A376" s="6" t="s">
         <v>2093</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="28.3">
+    <row r="377" spans="1:4">
       <c r="A377" s="3" t="s">
         <v>2126</v>
       </c>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="1:4" ht="28.3">
+    <row r="388" spans="1:4">
       <c r="A388" s="6" t="s">
         <v>2195</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="28.3">
+    <row r="391" spans="1:4">
       <c r="A391" s="6" t="s">
         <v>1743</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="28.3">
+    <row r="393" spans="1:4">
       <c r="A393" s="6" t="s">
         <v>1749</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="28.3">
+    <row r="395" spans="1:4">
       <c r="A395" s="6" t="s">
         <v>1755</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="28.3">
+    <row r="399" spans="1:4">
       <c r="A399" s="6" t="s">
         <v>1766</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="28.3">
+    <row r="406" spans="1:4">
       <c r="A406" s="6" t="s">
         <v>2260</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="28.3">
+    <row r="412" spans="1:4">
       <c r="A412" s="3" t="s">
         <v>2342</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="28.3">
+    <row r="422" spans="1:4">
       <c r="A422" s="3" t="s">
         <v>337</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="28.3">
+    <row r="434" spans="1:4">
       <c r="A434" s="3" t="s">
         <v>1660</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="28.3">
+    <row r="438" spans="1:4">
       <c r="A438" s="3" t="s">
         <v>423</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="28.3">
+    <row r="444" spans="1:4">
       <c r="A444" s="6" t="s">
         <v>2465</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="28.3">
+    <row r="450" spans="1:4">
       <c r="A450" s="3" t="s">
         <v>63</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="28.3">
+    <row r="451" spans="1:4">
       <c r="A451" s="6" t="s">
         <v>67</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="28.3">
+    <row r="452" spans="1:4">
       <c r="A452" s="3" t="s">
         <v>70</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="28.3">
+    <row r="457" spans="1:4">
       <c r="A457" s="6" t="s">
         <v>2497</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="28.3">
+    <row r="460" spans="1:4">
       <c r="A460" s="6" t="s">
         <v>1862</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="28.3">
+    <row r="466" spans="1:4">
       <c r="A466" s="3" t="s">
         <v>1565</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="28.3">
+    <row r="469" spans="1:4">
       <c r="A469" s="3" t="s">
         <v>469</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="28.3">
+    <row r="484" spans="1:4">
       <c r="A484" s="6" t="s">
         <v>2489</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="28.3">
+    <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
         <v>1422</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="28.3">
+    <row r="502" spans="1:4">
       <c r="A502" s="3" t="s">
         <v>1401</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="28.3">
+    <row r="503" spans="1:4">
       <c r="A503" s="3" t="s">
         <v>1409</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="28.3">
+    <row r="506" spans="1:4">
       <c r="A506" s="6" t="s">
         <v>1568</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="42.45">
+    <row r="510" spans="1:4" ht="28.3">
       <c r="A510" s="6" t="s">
         <v>1833</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="28.3">
+    <row r="517" spans="1:4">
       <c r="A517" s="3" t="s">
         <v>2530</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="28.3">
+    <row r="521" spans="1:4">
       <c r="A521" s="6" t="s">
         <v>2245</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="28.3">
+    <row r="527" spans="1:4">
       <c r="A527" s="6" t="s">
         <v>2346</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="28.3">
+    <row r="536" spans="1:4">
       <c r="A536" s="6" t="s">
         <v>59</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="28.3">
+    <row r="538" spans="1:4">
       <c r="A538" s="3" t="s">
         <v>1453</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="28.3">
+    <row r="557" spans="1:4">
       <c r="A557" s="3" t="s">
         <v>1394</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="28.3">
+    <row r="597" spans="1:4">
       <c r="A597" s="3" t="s">
         <v>1873</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="28.3">
+    <row r="604" spans="1:4">
       <c r="A604" s="6" t="s">
         <v>1875</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="28.3">
+    <row r="614" spans="1:4">
       <c r="A614" s="6" t="s">
         <v>914</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="28.3">
+    <row r="617" spans="1:4">
       <c r="A617" s="3" t="s">
         <v>200</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="28.3">
+    <row r="618" spans="1:4">
       <c r="A618" s="3" t="s">
         <v>715</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="28.3">
+    <row r="626" spans="1:4">
       <c r="A626" s="3" t="s">
         <v>867</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="28.3">
+    <row r="632" spans="1:4">
       <c r="A632" s="6" t="s">
         <v>2176</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="28.3">
+    <row r="648" spans="1:4">
       <c r="A648" s="6" t="s">
         <v>2449</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="28.3">
+    <row r="665" spans="1:4">
       <c r="A665" s="6" t="s">
         <v>998</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="28.3">
+    <row r="678" spans="1:4">
       <c r="A678" s="6" t="s">
         <v>1336</v>
       </c>
